--- a/2_experts_res/SEED/res.xlsx
+++ b/2_experts_res/SEED/res.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\2_experts_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B539FAC0-8D8C-0D45-A2F6-32164B34FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D473B34-085A-4C6C-8E6D-BEE950ABA19B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>people</t>
   </si>
@@ -46,12 +35,16 @@
     <t>平均</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,6 +183,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -498,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -539,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -550,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -561,40 +557,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -605,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -616,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -627,18 +623,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -649,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
@@ -660,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>7</v>
       </c>
@@ -671,7 +667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>8</v>
       </c>
@@ -682,7 +678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>8</v>
       </c>
@@ -693,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>9</v>
       </c>
@@ -704,7 +700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>9</v>
       </c>
@@ -715,7 +711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10</v>
       </c>
@@ -726,7 +722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10</v>
       </c>
@@ -737,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>11</v>
       </c>
@@ -748,7 +744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>11</v>
       </c>
@@ -759,7 +755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>12</v>
       </c>
@@ -770,7 +766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>12</v>
       </c>
@@ -781,7 +777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>13</v>
       </c>
@@ -792,7 +788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13</v>
       </c>
@@ -803,7 +799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>14</v>
       </c>
@@ -814,7 +810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>14</v>
       </c>
@@ -825,29 +821,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
@@ -856,8 +852,18 @@
         <v>0.93732333333333351</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <f>STDEVPA(B2:B31)</f>
+        <v>5.7894689931134627E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>